--- a/data/brautskraning/all.xlsx
+++ b/data/brautskraning/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinri\OneDrive\Documents\HR\Viðskiptagreind\vidskiptagreind-hopverkefni-1\data\brautskraning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F388F8-F4F8-47BD-ABCB-F4969778A8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D12E47-F104-4E3A-9556-7C90F7848A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{3C237C7E-C6E1-C449-AB72-86C22D13ACBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{3C237C7E-C6E1-C449-AB72-86C22D13ACBE}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" r:id="rId1"/>
@@ -443,7 +443,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -464,11 +464,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,15 +800,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -2982,8 +2981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817D2488-9C69-B447-BEE7-543B2703E599}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView zoomScale="22" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17 F21:F22 F27 F30 F32:F33 F42 F50:F53 F56 F61 F63 F65:F69 F72 F90 F95 F106 F109 F111 F115:F116 F120:F121 F123 F129:F131 F134 F136 F139 F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3275,7 +3274,9 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
       <c r="G17" s="6">
         <f>SUM(E17:F17)</f>
         <v>0</v>
@@ -3341,7 +3342,9 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
       <c r="G21" s="6">
         <f>SUM(E21:F21)</f>
         <v>0</v>
@@ -3354,7 +3357,9 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
       <c r="G22" s="6">
         <f>SUM(E22:F22)</f>
         <v>0</v>
@@ -3439,7 +3444,9 @@
       <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
       <c r="G27" s="6">
         <f>SUM(E27:F27)</f>
         <v>1</v>
@@ -3488,7 +3495,9 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
       <c r="G30" s="6">
         <f>SUM(E30:F30)</f>
         <v>0</v>
@@ -3520,7 +3529,9 @@
       <c r="E32" s="7">
         <v>1</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
       <c r="G32" s="12">
         <f>SUM(E32:F32)</f>
         <v>1</v>
@@ -3529,6 +3540,9 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -3672,7 +3686,9 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
       <c r="G42" s="6">
         <f>SUM(E42:F42)</f>
         <v>0</v>
@@ -3808,7 +3824,9 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
       <c r="G50" s="6">
         <f>SUM(E50:F50)</f>
         <v>0</v>
@@ -3821,7 +3839,9 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
       <c r="G51" s="6">
         <f>SUM(E51:F51)</f>
         <v>0</v>
@@ -3834,7 +3854,9 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
       <c r="G52" s="6">
         <f>SUM(E52:F52)</f>
         <v>0</v>
@@ -3847,7 +3869,9 @@
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
       <c r="G53" s="6">
         <f>SUM(E53:F53)</f>
         <v>0</v>
@@ -3896,7 +3920,9 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
       <c r="G56" s="6">
         <f>SUM(E56:F56)</f>
         <v>0</v>
@@ -3975,7 +4001,9 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
       <c r="G61" s="6">
         <f>SUM(E61:F61)</f>
         <v>0</v>
@@ -4007,7 +4035,9 @@
       <c r="E63" s="7">
         <v>1</v>
       </c>
-      <c r="F63" s="7"/>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
       <c r="G63" s="6">
         <f>SUM(E63:F63)</f>
         <v>1</v>
@@ -4039,7 +4069,9 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
       <c r="G65" s="6">
         <f>SUM(E65:F65)</f>
         <v>0</v>
@@ -4052,7 +4084,9 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
       <c r="G66" s="6">
         <f>SUM(E66:F66)</f>
         <v>0</v>
@@ -4065,7 +4099,9 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
       <c r="G67" s="6">
         <f>SUM(E67:F67)</f>
         <v>0</v>
@@ -4080,7 +4116,9 @@
       <c r="E68" s="7">
         <v>2</v>
       </c>
-      <c r="F68" s="7"/>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
       <c r="G68" s="6">
         <f>SUM(E68:F68)</f>
         <v>2</v>
@@ -4089,6 +4127,9 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -4134,7 +4175,9 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
       <c r="G72" s="6">
         <f>SUM(E72:F72)</f>
         <v>0</v>
@@ -4432,6 +4475,9 @@
       <c r="A90" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B91" s="11" t="s">
@@ -4508,7 +4554,9 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
       <c r="G95" s="6">
         <f>SUM(E95:F95)</f>
         <v>0</v>
@@ -4690,6 +4738,9 @@
       <c r="A106" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
@@ -4734,7 +4785,9 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
       <c r="G109" s="6">
         <f>SUM(E109:F109)</f>
         <v>0</v>
@@ -4764,7 +4817,9 @@
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
+      <c r="F111" s="7">
+        <v>0</v>
+      </c>
       <c r="G111" s="6">
         <f>SUM(E111:F111)</f>
         <v>0</v>
@@ -4830,7 +4885,9 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
+      <c r="F115" s="2">
+        <v>0</v>
+      </c>
       <c r="G115" s="6">
         <f>SUM(E115:F115)</f>
         <v>0</v>
@@ -4843,7 +4900,9 @@
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
+      <c r="F116" s="7">
+        <v>0</v>
+      </c>
       <c r="G116" s="6">
         <f>SUM(E116:F116)</f>
         <v>0</v>
@@ -4909,7 +4968,9 @@
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
+      <c r="F120" s="2">
+        <v>0</v>
+      </c>
       <c r="G120" s="6">
         <f>SUM(E120:F120)</f>
         <v>0</v>
@@ -4922,7 +4983,9 @@
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
+      <c r="F121" s="7">
+        <v>0</v>
+      </c>
       <c r="G121" s="6">
         <f>SUM(E121:F121)</f>
         <v>0</v>
@@ -4954,7 +5017,9 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2">
+        <v>0</v>
+      </c>
       <c r="G123" s="6">
         <f>SUM(E123:F123)</f>
         <v>0</v>
@@ -5054,7 +5119,9 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
       <c r="G129" s="6">
         <f>SUM(E129:F129)</f>
         <v>0</v>
@@ -5067,7 +5134,9 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
       <c r="G130" s="6">
         <f>SUM(E130:F130)</f>
         <v>0</v>
@@ -5080,7 +5149,9 @@
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
+      <c r="F131" s="7">
+        <v>0</v>
+      </c>
       <c r="G131" s="6">
         <f>SUM(E131:F131)</f>
         <v>0</v>
@@ -5129,7 +5200,9 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
       <c r="G134" s="6">
         <f>SUM(E134:F134)</f>
         <v>0</v>
@@ -5159,7 +5232,9 @@
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
+      <c r="F136" s="7">
+        <v>0</v>
+      </c>
       <c r="G136" s="6">
         <f>SUM(E136:F136)</f>
         <v>0</v>
@@ -5208,7 +5283,9 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
       <c r="G139" s="6">
         <f>SUM(E139:F139)</f>
         <v>0</v>
@@ -5238,7 +5315,9 @@
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
+      <c r="F141" s="7">
+        <v>0</v>
+      </c>
       <c r="G141" s="6">
         <f>SUM(E141:F141)</f>
         <v>0</v>
@@ -5416,8 +5495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3285D43A-0B0D-CD4B-B6CA-7E11B9788786}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="63" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView zoomScale="29" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10 F12 F15 F17 F20 F22 F30 F32:F33 F41 F50 F56 F58 F61 F63 F66:F69 F74 F79 F90 F95 F100 F106 F109 F115:F116 F119 F123:F124 F128:F131 F134 F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5590,7 +5669,9 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
       <c r="G10" s="6">
         <f>SUM(E10:F10)</f>
         <v>0</v>
@@ -5620,7 +5701,9 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
       <c r="G12" s="6">
         <f>SUM(E12:F12)</f>
         <v>0</v>
@@ -5669,7 +5752,9 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="6">
         <f>SUM(E15:F15)</f>
         <v>0</v>
@@ -5701,7 +5786,9 @@
       <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
       <c r="G17" s="6">
         <f>SUM(E17:F17)</f>
         <v>1</v>
@@ -5750,7 +5837,9 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
       <c r="G20" s="6">
         <f>SUM(E20:F20)</f>
         <v>0</v>
@@ -5780,7 +5869,9 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
       <c r="G22" s="6">
         <f>SUM(E22:F22)</f>
         <v>0</v>
@@ -5914,7 +6005,9 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
       <c r="G30" s="6">
         <f>SUM(E30:F30)</f>
         <v>0</v>
@@ -5944,7 +6037,9 @@
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
       <c r="G32" s="12">
         <f>SUM(E32:F32)</f>
         <v>0</v>
@@ -5953,6 +6048,9 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -6079,7 +6177,9 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
       <c r="G41" s="6">
         <f>SUM(E41:F41)</f>
         <v>0</v>
@@ -6228,7 +6328,9 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
       <c r="G50" s="6">
         <f>SUM(E50:F50)</f>
         <v>0</v>
@@ -6326,7 +6428,9 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
       <c r="G56" s="6">
         <f>SUM(E56:F56)</f>
         <v>0</v>
@@ -6358,7 +6462,9 @@
       <c r="E58" s="7">
         <v>1</v>
       </c>
-      <c r="F58" s="7"/>
+      <c r="F58" s="7">
+        <v>0</v>
+      </c>
       <c r="G58" s="6">
         <f>SUM(E58:F58)</f>
         <v>1</v>
@@ -6407,7 +6513,9 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
       <c r="G61" s="6">
         <f>SUM(E61:F61)</f>
         <v>0</v>
@@ -6437,7 +6545,9 @@
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
       <c r="G63" s="6">
         <f>SUM(E63:F63)</f>
         <v>0</v>
@@ -6486,7 +6596,9 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
       <c r="G66" s="6">
         <f>SUM(E66:F66)</f>
         <v>0</v>
@@ -6499,7 +6611,9 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
       <c r="G67" s="6">
         <f>SUM(E67:F67)</f>
         <v>0</v>
@@ -6512,7 +6626,9 @@
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
       <c r="G68" s="6">
         <f>SUM(E68:F68)</f>
         <v>0</v>
@@ -6521,6 +6637,9 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -6600,7 +6719,9 @@
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
       <c r="G74" s="6">
         <f>SUM(E74:F74)</f>
         <v>0</v>
@@ -6681,7 +6802,9 @@
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
       <c r="G79" s="6">
         <f>SUM(E79:F79)</f>
         <v>0</v>
@@ -6864,6 +6987,9 @@
       <c r="A90" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B91" s="11" t="s">
@@ -6940,7 +7066,9 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
       <c r="G95" s="6">
         <f>SUM(E95:F95)</f>
         <v>0</v>
@@ -7023,7 +7151,9 @@
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
       <c r="G100" s="6">
         <f>SUM(E100:F100)</f>
         <v>0</v>
@@ -7118,6 +7248,9 @@
       <c r="A106" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
@@ -7162,7 +7295,9 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
       <c r="G109" s="6">
         <f>SUM(E109:F109)</f>
         <v>0</v>
@@ -7262,7 +7397,9 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
+      <c r="F115" s="2">
+        <v>0</v>
+      </c>
       <c r="G115" s="6">
         <f>SUM(E115:F115)</f>
         <v>0</v>
@@ -7277,7 +7414,9 @@
       <c r="E116" s="7">
         <v>3</v>
       </c>
-      <c r="F116" s="7"/>
+      <c r="F116" s="7">
+        <v>0</v>
+      </c>
       <c r="G116" s="6">
         <f>SUM(E116:F116)</f>
         <v>3</v>
@@ -7326,7 +7465,9 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="F119" s="2">
+        <v>0</v>
+      </c>
       <c r="G119" s="6">
         <f>SUM(E119:F119)</f>
         <v>0</v>
@@ -7392,7 +7533,9 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2">
+        <v>0</v>
+      </c>
       <c r="G123" s="6">
         <f>SUM(E123:F123)</f>
         <v>0</v>
@@ -7405,7 +7548,9 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
+      <c r="F124" s="2">
+        <v>0</v>
+      </c>
       <c r="G124" s="6">
         <f>SUM(E124:F124)</f>
         <v>0</v>
@@ -7473,7 +7618,9 @@
       <c r="E128" s="2">
         <v>35</v>
       </c>
-      <c r="F128" s="2"/>
+      <c r="F128" s="2">
+        <v>0</v>
+      </c>
       <c r="G128" s="6">
         <f>SUM(E128:F128)</f>
         <v>35</v>
@@ -7486,7 +7633,9 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
       <c r="G129" s="6">
         <f>SUM(E129:F129)</f>
         <v>0</v>
@@ -7501,7 +7650,9 @@
       <c r="E130" s="2">
         <v>1</v>
       </c>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
       <c r="G130" s="6">
         <f>SUM(E130:F130)</f>
         <v>1</v>
@@ -7516,7 +7667,9 @@
       <c r="E131" s="7">
         <v>3</v>
       </c>
-      <c r="F131" s="7"/>
+      <c r="F131" s="7">
+        <v>0</v>
+      </c>
       <c r="G131" s="6">
         <f>SUM(E131:F131)</f>
         <v>3</v>
@@ -7565,7 +7718,9 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
       <c r="G134" s="6">
         <f>SUM(E134:F134)</f>
         <v>0</v>
@@ -7648,7 +7803,9 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
       <c r="G139" s="6">
         <f>SUM(E139:F139)</f>
         <v>0</v>
@@ -7858,8 +8015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B4F07B-1AE3-CF41-8930-9D602E953229}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="61" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView topLeftCell="C29" zoomScale="48" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7981,7 +8138,9 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
       <c r="G7" s="6">
         <f>SUM(E7:F7)</f>
         <v>0</v>
@@ -8060,7 +8219,9 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
       <c r="G12" s="6">
         <f>SUM(E12:F12)</f>
         <v>0</v>
@@ -8194,7 +8355,9 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
       <c r="G20" s="6">
         <f>SUM(E20:F20)</f>
         <v>0</v>
@@ -8406,6 +8569,9 @@
       <c r="A33" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
@@ -8552,7 +8718,9 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
       <c r="G42" s="6">
         <f>SUM(E42:F42)</f>
         <v>0</v>
@@ -8686,7 +8854,9 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
       <c r="G50" s="6">
         <f>SUM(E50:F50)</f>
         <v>0</v>
@@ -8801,7 +8971,9 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
       <c r="G57" s="6">
         <f>SUM(E57:F57)</f>
         <v>0</v>
@@ -8882,7 +9054,9 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
       <c r="G62" s="6">
         <f>SUM(E62:F62)</f>
         <v>0</v>
@@ -8946,7 +9120,9 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
       <c r="G66" s="6">
         <f>SUM(E66:F66)</f>
         <v>0</v>
@@ -8961,7 +9137,9 @@
       <c r="E67" s="2">
         <v>1</v>
       </c>
-      <c r="F67" s="2"/>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
       <c r="G67" s="6">
         <f>SUM(E67:F67)</f>
         <v>1</v>
@@ -8974,7 +9152,9 @@
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
       <c r="G68" s="6">
         <f>SUM(E68:F68)</f>
         <v>0</v>
@@ -8983,6 +9163,9 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -9130,7 +9313,9 @@
       <c r="E78" s="2">
         <v>3</v>
       </c>
-      <c r="F78" s="2"/>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
       <c r="G78" s="6">
         <f>SUM(E78:F78)</f>
         <v>3</v>
@@ -9326,6 +9511,9 @@
       <c r="A90" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B91" s="11" t="s">
@@ -9402,7 +9590,9 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
       <c r="G95" s="6">
         <f>SUM(E95:F95)</f>
         <v>0</v>
@@ -9485,7 +9675,9 @@
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
       <c r="G100" s="6">
         <f>SUM(E100:F100)</f>
         <v>0</v>
@@ -9580,6 +9772,9 @@
       <c r="A106" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
@@ -9624,7 +9819,9 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
       <c r="G109" s="6">
         <f>SUM(E109:F109)</f>
         <v>0</v>
@@ -9705,7 +9902,9 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
       <c r="G114" s="6">
         <f>SUM(E114:F114)</f>
         <v>0</v>
@@ -9788,7 +9987,9 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="F119" s="2">
+        <v>0</v>
+      </c>
       <c r="G119" s="6">
         <f>SUM(E119:F119)</f>
         <v>0</v>
@@ -9854,7 +10055,9 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2">
+        <v>0</v>
+      </c>
       <c r="G123" s="6">
         <f>SUM(E123:F123)</f>
         <v>0</v>
@@ -9867,7 +10070,9 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
+      <c r="F124" s="2">
+        <v>0</v>
+      </c>
       <c r="G124" s="6">
         <f>SUM(E124:F124)</f>
         <v>0</v>
@@ -9950,7 +10155,9 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
       <c r="G129" s="6">
         <f>SUM(E129:F129)</f>
         <v>0</v>
@@ -9963,7 +10170,9 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
       <c r="G130" s="6">
         <f>SUM(E130:F130)</f>
         <v>0</v>
@@ -9978,7 +10187,9 @@
       <c r="E131" s="7">
         <v>1</v>
       </c>
-      <c r="F131" s="7"/>
+      <c r="F131" s="7">
+        <v>0</v>
+      </c>
       <c r="G131" s="6">
         <f>SUM(E131:F131)</f>
         <v>1</v>
@@ -10027,7 +10238,9 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
       <c r="G134" s="6">
         <f>SUM(E134:F134)</f>
         <v>0</v>
@@ -10059,7 +10272,9 @@
       <c r="E136" s="7">
         <v>4</v>
       </c>
-      <c r="F136" s="7"/>
+      <c r="F136" s="7">
+        <v>0</v>
+      </c>
       <c r="G136" s="6">
         <f>SUM(E136:F136)</f>
         <v>4</v>
@@ -10108,7 +10323,9 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
       <c r="G139" s="6">
         <f>SUM(E139:F139)</f>
         <v>0</v>
@@ -10318,8 +10535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EE58E4-1EC2-A54D-83CF-ABC7F8F716D5}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" zoomScale="56" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView zoomScale="56" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10528,7 +10745,9 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
       <c r="G12" s="6">
         <f>SUM(E12:F12)</f>
         <v>0</v>
@@ -10660,7 +10879,9 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
       <c r="G20" s="6">
         <f>SUM(E20:F20)</f>
         <v>0</v>
@@ -10692,7 +10913,9 @@
       <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
       <c r="G22" s="6">
         <f>SUM(E22:F22)</f>
         <v>1</v>
@@ -10826,7 +11049,9 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
       <c r="G30" s="6">
         <f>SUM(E30:F30)</f>
         <v>0</v>
@@ -10856,7 +11081,9 @@
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
       <c r="G32" s="12">
         <f>SUM(E32:F32)</f>
         <v>0</v>
@@ -10865,6 +11092,9 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -10989,7 +11219,9 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
       <c r="G41" s="6">
         <f>SUM(E41:F41)</f>
         <v>0</v>
@@ -11140,7 +11372,9 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
       <c r="G50" s="6">
         <f>SUM(E50:F50)</f>
         <v>0</v>
@@ -11236,7 +11470,9 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
       <c r="G56" s="6">
         <f>SUM(E56:F56)</f>
         <v>0</v>
@@ -11249,7 +11485,9 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
       <c r="G57" s="6">
         <f>SUM(E57:F57)</f>
         <v>0</v>
@@ -11313,7 +11551,9 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
       <c r="G61" s="6">
         <f>SUM(E61:F61)</f>
         <v>0</v>
@@ -11343,7 +11583,9 @@
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
       <c r="G63" s="6">
         <f>SUM(E63:F63)</f>
         <v>0</v>
@@ -11392,7 +11634,9 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
       <c r="G66" s="6">
         <f>SUM(E66:F66)</f>
         <v>0</v>
@@ -11420,7 +11664,9 @@
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
       <c r="G68" s="6">
         <f>SUM(E68:F68)</f>
         <v>0</v>
@@ -11429,6 +11675,9 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -11474,7 +11723,9 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
       <c r="G72" s="6">
         <f>SUM(E72:F72)</f>
         <v>0</v>
@@ -11504,7 +11755,9 @@
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
       <c r="G74" s="6">
         <f>SUM(E74:F74)</f>
         <v>0</v>
@@ -11585,7 +11838,9 @@
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
       <c r="G79" s="6">
         <f>SUM(E79:F79)</f>
         <v>0</v>
@@ -11764,6 +12019,9 @@
       <c r="A90" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B91" s="11" t="s">
@@ -11840,7 +12098,9 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
       <c r="G95" s="6">
         <f>SUM(E95:F95)</f>
         <v>0</v>
@@ -11923,7 +12183,9 @@
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
       <c r="G100" s="6">
         <f>SUM(E100:F100)</f>
         <v>0</v>
@@ -12018,6 +12280,9 @@
       <c r="A106" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
@@ -12062,7 +12327,9 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
       <c r="G109" s="6">
         <f>SUM(E109:F109)</f>
         <v>0</v>
@@ -12094,7 +12361,9 @@
       <c r="E111" s="7">
         <v>1</v>
       </c>
-      <c r="F111" s="7"/>
+      <c r="F111" s="7">
+        <v>0</v>
+      </c>
       <c r="G111" s="6">
         <f>SUM(E111:F111)</f>
         <v>1</v>
@@ -12143,7 +12412,9 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
       <c r="G114" s="6">
         <f>SUM(E114:F114)</f>
         <v>0</v>
@@ -12226,7 +12497,9 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="F119" s="2">
+        <v>0</v>
+      </c>
       <c r="G119" s="6">
         <f>SUM(E119:F119)</f>
         <v>0</v>
@@ -12292,7 +12565,9 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2">
+        <v>0</v>
+      </c>
       <c r="G123" s="6">
         <f>SUM(E123:F123)</f>
         <v>0</v>
@@ -12305,7 +12580,9 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
+      <c r="F124" s="2">
+        <v>0</v>
+      </c>
       <c r="G124" s="6">
         <f>SUM(E124:F124)</f>
         <v>0</v>
@@ -12335,7 +12612,9 @@
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
+      <c r="F126" s="7">
+        <v>0</v>
+      </c>
       <c r="G126" s="6">
         <f>SUM(E126:F126)</f>
         <v>0</v>
@@ -12384,7 +12663,9 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
       <c r="G129" s="6">
         <f>SUM(E129:F129)</f>
         <v>0</v>
@@ -12397,7 +12678,9 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
       <c r="G130" s="6">
         <f>SUM(E130:F130)</f>
         <v>0</v>
@@ -12412,7 +12695,9 @@
       <c r="E131" s="7">
         <v>1</v>
       </c>
-      <c r="F131" s="7"/>
+      <c r="F131" s="7">
+        <v>0</v>
+      </c>
       <c r="G131" s="6">
         <f>SUM(E131:F131)</f>
         <v>1</v>
@@ -12461,7 +12746,9 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
       <c r="G134" s="6">
         <f>SUM(E134:F134)</f>
         <v>0</v>
@@ -12476,7 +12763,9 @@
       <c r="E135" s="2">
         <v>2</v>
       </c>
-      <c r="F135" s="2"/>
+      <c r="F135" s="2">
+        <v>0</v>
+      </c>
       <c r="G135" s="6">
         <f>SUM(E135:F135)</f>
         <v>2</v>
@@ -12542,7 +12831,9 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
       <c r="G139" s="6">
         <f>SUM(E139:F139)</f>
         <v>0</v>
@@ -12752,8 +13043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE51E095-01E5-7C4A-BEC8-E6F63ADBAC41}">
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" zoomScale="111" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12 F15 F17 F20 F25 F27 F30 F33 F41 F50 F53 F56 F61 F66:F69 F74 F77 F79 F90 F95 F100 F106 F109 F111 F114 F119:F120 F123:F124 F126 F129:F131 F134 F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12962,7 +13253,9 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
       <c r="G12" s="6">
         <f>SUM(E12:F12)</f>
         <v>0</v>
@@ -13011,7 +13304,9 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="6">
         <f>SUM(E15:F15)</f>
         <v>0</v>
@@ -13043,7 +13338,9 @@
       <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
       <c r="G17" s="6">
         <f>SUM(E17:F17)</f>
         <v>1</v>
@@ -13092,7 +13389,9 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
       <c r="G20" s="6">
         <f>SUM(E20:F20)</f>
         <v>0</v>
@@ -13173,7 +13472,9 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
       <c r="G25" s="6">
         <f>SUM(E25:F25)</f>
         <v>0</v>
@@ -13203,7 +13504,9 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
       <c r="G27" s="6">
         <f>SUM(E27:F27)</f>
         <v>0</v>
@@ -13252,7 +13555,9 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
       <c r="G30" s="6">
         <f>SUM(E30:F30)</f>
         <v>0</v>
@@ -13293,6 +13598,9 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -13419,7 +13727,9 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
       <c r="G41" s="6">
         <f>SUM(E41:F41)</f>
         <v>0</v>
@@ -13570,7 +13880,9 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
       <c r="G50" s="6">
         <f>SUM(E50:F50)</f>
         <v>0</v>
@@ -13617,7 +13929,9 @@
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
       <c r="G53" s="6">
         <f>SUM(E53:F53)</f>
         <v>0</v>
@@ -13666,7 +13980,9 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
       <c r="G56" s="6">
         <f>SUM(E56:F56)</f>
         <v>0</v>
@@ -13747,7 +14063,9 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
       <c r="G61" s="6">
         <f>SUM(E61:F61)</f>
         <v>0</v>
@@ -13830,7 +14148,9 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
       <c r="G66" s="6">
         <f>SUM(E66:F66)</f>
         <v>0</v>
@@ -13845,7 +14165,9 @@
       <c r="E67" s="2">
         <v>1</v>
       </c>
-      <c r="F67" s="2"/>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
       <c r="G67" s="6">
         <f>SUM(E67:F67)</f>
         <v>1</v>
@@ -13858,7 +14180,9 @@
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
       <c r="G68" s="6">
         <f>SUM(E68:F68)</f>
         <v>0</v>
@@ -13867,6 +14191,9 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -13883,11 +14210,11 @@
         <f>SUM(F71:F74)</f>
         <v>88</v>
       </c>
-      <c r="G70" s="22">
+      <c r="G70" s="3">
         <f>SUM(G71:G74)</f>
         <v>129</v>
       </c>
-      <c r="H70" s="21"/>
+      <c r="H70" s="20"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B71" s="9"/>
@@ -13947,7 +14274,9 @@
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
       <c r="G74" s="6">
         <f>SUM(E74:F74)</f>
         <v>0</v>
@@ -13996,7 +14325,9 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="F77" s="2">
+        <v>0</v>
+      </c>
       <c r="G77" s="6">
         <f>SUM(E77:F77)</f>
         <v>0</v>
@@ -14026,7 +14357,9 @@
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
       <c r="G79" s="6">
         <f>SUM(E79:F79)</f>
         <v>0</v>
@@ -14207,6 +14540,9 @@
       <c r="A90" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B91" s="11" t="s">
@@ -14283,7 +14619,9 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
       <c r="G95" s="6">
         <f>SUM(E95:F95)</f>
         <v>0</v>
@@ -14366,7 +14704,9 @@
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
       <c r="G100" s="6">
         <f>SUM(E100:F100)</f>
         <v>0</v>
@@ -14463,6 +14803,9 @@
       <c r="A106" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
@@ -14507,7 +14850,9 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
       <c r="G109" s="6">
         <f>SUM(E109:F109)</f>
         <v>0</v>
@@ -14537,7 +14882,9 @@
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
+      <c r="F111" s="7">
+        <v>0</v>
+      </c>
       <c r="G111" s="6">
         <f>SUM(E111:F111)</f>
         <v>0</v>
@@ -14586,7 +14933,9 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
       <c r="G114" s="6">
         <f>SUM(E114:F114)</f>
         <v>0</v>
@@ -14669,7 +15018,9 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="F119" s="2">
+        <v>0</v>
+      </c>
       <c r="G119" s="6">
         <f>SUM(E119:F119)</f>
         <v>0</v>
@@ -14684,7 +15035,9 @@
       <c r="E120" s="2">
         <v>1</v>
       </c>
-      <c r="F120" s="2"/>
+      <c r="F120" s="2">
+        <v>0</v>
+      </c>
       <c r="G120" s="6">
         <f>SUM(E120:F120)</f>
         <v>1</v>
@@ -14733,7 +15086,9 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2">
+        <v>0</v>
+      </c>
       <c r="G123" s="6">
         <f>SUM(E123:F123)</f>
         <v>0</v>
@@ -14746,7 +15101,9 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
+      <c r="F124" s="2">
+        <v>0</v>
+      </c>
       <c r="G124" s="6">
         <f>SUM(E124:F124)</f>
         <v>0</v>
@@ -14776,7 +15133,9 @@
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
+      <c r="F126" s="7">
+        <v>0</v>
+      </c>
       <c r="G126" s="6">
         <f>SUM(E126:F126)</f>
         <v>0</v>
@@ -14825,7 +15184,9 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
       <c r="G129" s="6">
         <f>SUM(E129:F129)</f>
         <v>0</v>
@@ -14840,7 +15201,9 @@
       <c r="E130" s="2">
         <v>1</v>
       </c>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
       <c r="G130" s="6">
         <f>SUM(E130:F130)</f>
         <v>1</v>
@@ -14853,7 +15216,9 @@
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
+      <c r="F131" s="7">
+        <v>0</v>
+      </c>
       <c r="G131" s="6">
         <f>SUM(E131:F131)</f>
         <v>0</v>
@@ -14902,7 +15267,9 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
       <c r="G134" s="6">
         <f>SUM(E134:F134)</f>
         <v>0</v>
@@ -14985,7 +15352,9 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
       <c r="G139" s="6">
         <f>SUM(E139:F139)</f>
         <v>0</v>
@@ -15195,8 +15564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7503EB97-BE25-CB42-8ECE-CDD05EFD981B}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScale="97" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView topLeftCell="A12" zoomScale="97" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -15401,7 +15770,9 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
       <c r="G12" s="6">
         <f>SUM(E12:F12)</f>
         <v>0</v>
@@ -15452,7 +15823,9 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="6">
         <f>SUM(E15:F15)</f>
         <v>1</v>
@@ -15737,7 +16110,9 @@
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
       <c r="G32" s="12">
         <f>SUM(E32:F32)</f>
         <v>0</v>
@@ -15746,6 +16121,9 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -16031,7 +16409,9 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
       <c r="G50" s="6">
         <f>SUM(E50:F50)</f>
         <v>0</v>
@@ -16127,7 +16507,9 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
       <c r="G56" s="6">
         <f>SUM(E56:F56)</f>
         <v>0</v>
@@ -16159,7 +16541,9 @@
       <c r="E58" s="7">
         <v>1</v>
       </c>
-      <c r="F58" s="7"/>
+      <c r="F58" s="7">
+        <v>0</v>
+      </c>
       <c r="G58" s="6">
         <f>SUM(E58:F58)</f>
         <v>1</v>
@@ -16208,7 +16592,9 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
       <c r="G61" s="6">
         <f>SUM(E61:F61)</f>
         <v>0</v>
@@ -16321,7 +16707,9 @@
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
       <c r="G68" s="6">
         <f>SUM(E68:F68)</f>
         <v>0</v>
@@ -16330,6 +16718,9 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -16409,7 +16800,9 @@
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
       <c r="G74" s="6">
         <f>SUM(E74:F74)</f>
         <v>0</v>
@@ -16673,6 +17066,9 @@
       <c r="A90" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B91" s="11" t="s">
@@ -16751,7 +17147,9 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
       <c r="G95" s="6">
         <f>SUM(E95:F95)</f>
         <v>0</v>
@@ -16832,7 +17230,9 @@
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
       <c r="G100" s="6">
         <f>SUM(E100:F100)</f>
         <v>0</v>
@@ -16927,6 +17327,9 @@
       <c r="A106" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
@@ -16971,7 +17374,9 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
       <c r="G109" s="6">
         <f>SUM(E109:F109)</f>
         <v>0</v>
@@ -17003,7 +17408,9 @@
       <c r="E111" s="7">
         <v>3</v>
       </c>
-      <c r="F111" s="7"/>
+      <c r="F111" s="7">
+        <v>0</v>
+      </c>
       <c r="G111" s="6">
         <f>SUM(E111:F111)</f>
         <v>3</v>
@@ -17052,7 +17459,9 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
       <c r="G114" s="6">
         <f>SUM(E114:F114)</f>
         <v>0</v>
@@ -17135,7 +17544,9 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="F119" s="2">
+        <v>0</v>
+      </c>
       <c r="G119" s="6">
         <f>SUM(E119:F119)</f>
         <v>0</v>
@@ -17201,7 +17612,9 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2">
+        <v>0</v>
+      </c>
       <c r="G123" s="6">
         <f>SUM(E123:F123)</f>
         <v>0</v>
@@ -17214,7 +17627,9 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
+      <c r="F124" s="2">
+        <v>0</v>
+      </c>
       <c r="G124" s="6">
         <f>SUM(E124:F124)</f>
         <v>0</v>
@@ -17227,7 +17642,9 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
+      <c r="F125" s="2">
+        <v>0</v>
+      </c>
       <c r="G125" s="6">
         <f>SUM(E125:F125)</f>
         <v>0</v>
@@ -17293,7 +17710,9 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
       <c r="G129" s="6">
         <f>SUM(E129:F129)</f>
         <v>0</v>
@@ -17308,7 +17727,9 @@
       <c r="E130" s="2">
         <v>2</v>
       </c>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
       <c r="G130" s="6">
         <f>SUM(E130:F130)</f>
         <v>2</v>
@@ -17321,7 +17742,9 @@
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
+      <c r="F131" s="7">
+        <v>0</v>
+      </c>
       <c r="G131" s="6">
         <f>SUM(E131:F131)</f>
         <v>0</v>
@@ -17370,7 +17793,9 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
       <c r="G134" s="6">
         <f>SUM(E134:F134)</f>
         <v>0</v>
@@ -17402,7 +17827,9 @@
       <c r="E136" s="7">
         <v>5</v>
       </c>
-      <c r="F136" s="7"/>
+      <c r="F136" s="7">
+        <v>0</v>
+      </c>
       <c r="G136" s="6">
         <f>SUM(E136:F136)</f>
         <v>5</v>
@@ -17451,7 +17878,9 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
       <c r="G139" s="6">
         <f>SUM(E139:F139)</f>
         <v>0</v>
@@ -17663,8 +18092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F12672-2EB5-6346-B7C9-5975AEA7B373}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7 F17 F20 F22 F32:F33 F38 F41 F50 F57 F61 F68:F69 F74 F79 F90 F95 F100 F106 F109 F111 F114 F119 F123:F125 F129:F131 F134 F139 F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -17788,7 +18217,9 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
       <c r="G7" s="6">
         <f>SUM(E7:F7)</f>
         <v>1</v>
@@ -17952,7 +18383,9 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
       <c r="G17" s="6">
         <f>SUM(E17:F17)</f>
         <v>0</v>
@@ -18001,7 +18434,9 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
       <c r="G20" s="6">
         <f>SUM(E20:F20)</f>
         <v>0</v>
@@ -18031,7 +18466,9 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
       <c r="G22" s="6">
         <f>SUM(E22:F22)</f>
         <v>0</v>
@@ -18199,7 +18636,9 @@
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
       <c r="G32" s="12">
         <f>SUM(E32:F32)</f>
         <v>0</v>
@@ -18208,6 +18647,9 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -18287,7 +18729,9 @@
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
       <c r="G38" s="6">
         <f>SUM(E38:F38)</f>
         <v>0</v>
@@ -18336,7 +18780,9 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
       <c r="G41" s="6">
         <f>SUM(E41:F41)</f>
         <v>0</v>
@@ -18487,7 +18933,9 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
       <c r="G50" s="6">
         <f>SUM(E50:F50)</f>
         <v>0</v>
@@ -18602,7 +19050,9 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
       <c r="G57" s="6">
         <f>SUM(E57:F57)</f>
         <v>0</v>
@@ -18668,7 +19118,9 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
       <c r="G61" s="6">
         <f>SUM(E61:F61)</f>
         <v>0</v>
@@ -18779,7 +19231,9 @@
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
       <c r="G68" s="6">
         <f>SUM(E68:F68)</f>
         <v>0</v>
@@ -18788,6 +19242,9 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -18869,7 +19326,9 @@
       <c r="E74" s="7">
         <v>1</v>
       </c>
-      <c r="F74" s="7"/>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
       <c r="G74" s="6">
         <f>SUM(E74:F74)</f>
         <v>1</v>
@@ -18950,7 +19409,9 @@
       <c r="E79" s="7">
         <v>1</v>
       </c>
-      <c r="F79" s="7"/>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
       <c r="G79" s="6">
         <f>SUM(E79:F79)</f>
         <v>1</v>
@@ -19133,6 +19594,9 @@
       <c r="A90" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B91" s="11" t="s">
@@ -19213,7 +19677,9 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
       <c r="G95" s="6">
         <f>SUM(E95:F95)</f>
         <v>0</v>
@@ -19296,7 +19762,9 @@
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
       <c r="G100" s="6">
         <f>SUM(E100:F100)</f>
         <v>0</v>
@@ -19391,6 +19859,9 @@
       <c r="A106" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
@@ -19435,7 +19906,9 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
       <c r="G109" s="6">
         <f>SUM(E109:F109)</f>
         <v>0</v>
@@ -19467,7 +19940,9 @@
       <c r="E111" s="2">
         <v>1</v>
       </c>
-      <c r="F111" s="2"/>
+      <c r="F111" s="2">
+        <v>0</v>
+      </c>
       <c r="G111" s="6">
         <f>SUM(E111:F111)</f>
         <v>1</v>
@@ -19516,7 +19991,9 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
       <c r="G114" s="6">
         <f>SUM(E114:F114)</f>
         <v>0</v>
@@ -19599,7 +20076,9 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="F119" s="2">
+        <v>0</v>
+      </c>
       <c r="G119" s="6">
         <f>SUM(E119:F119)</f>
         <v>0</v>
@@ -19665,7 +20144,9 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2">
+        <v>0</v>
+      </c>
       <c r="G123" s="6">
         <f>SUM(E123:F123)</f>
         <v>0</v>
@@ -19678,7 +20159,9 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
+      <c r="F124" s="2">
+        <v>0</v>
+      </c>
       <c r="G124" s="6">
         <f>SUM(E124:F124)</f>
         <v>0</v>
@@ -19691,7 +20174,9 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
+      <c r="F125" s="2">
+        <v>0</v>
+      </c>
       <c r="G125" s="6">
         <f>SUM(E125:F125)</f>
         <v>0</v>
@@ -19755,7 +20240,9 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
       <c r="G129" s="6">
         <f>SUM(E129:F129)</f>
         <v>0</v>
@@ -19770,7 +20257,9 @@
       <c r="E130" s="2">
         <v>3</v>
       </c>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
       <c r="G130" s="6">
         <f>SUM(E130:F130)</f>
         <v>3</v>
@@ -19783,7 +20272,9 @@
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
+      <c r="F131" s="7">
+        <v>0</v>
+      </c>
       <c r="G131" s="6">
         <f>SUM(E131:F131)</f>
         <v>0</v>
@@ -19832,7 +20323,9 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
       <c r="G134" s="6">
         <f>SUM(E134:F134)</f>
         <v>0</v>
@@ -19915,7 +20408,9 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
       <c r="G139" s="6">
         <f>SUM(E139:F139)</f>
         <v>0</v>
@@ -19945,7 +20440,9 @@
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
+      <c r="F141" s="7">
+        <v>0</v>
+      </c>
       <c r="G141" s="6">
         <f>SUM(E141:F141)</f>
         <v>0</v>
@@ -20123,8 +20620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B99F223-84AE-4F4B-B4A1-A75494DE4159}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScale="122" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView topLeftCell="A56" zoomScale="122" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -20248,7 +20745,9 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
       <c r="G7" s="6">
         <f>SUM(E7:F7)</f>
         <v>1</v>
@@ -20331,7 +20830,9 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
       <c r="G12" s="6">
         <f>SUM(E12:F12)</f>
         <v>0</v>
@@ -20416,7 +20917,9 @@
       <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
       <c r="G17" s="6">
         <f>SUM(E17:F17)</f>
         <v>1</v>
@@ -20482,7 +20985,9 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
       <c r="G21" s="6">
         <f>SUM(E21:F21)</f>
         <v>0</v>
@@ -20497,7 +21002,9 @@
       <c r="E22" s="7">
         <v>1</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
       <c r="G22" s="6">
         <f>SUM(E22:F22)</f>
         <v>1</v>
@@ -20582,7 +21089,9 @@
       <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
       <c r="G27" s="6">
         <f>SUM(E27:F27)</f>
         <v>1</v>
@@ -20806,7 +21315,9 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
       <c r="G41" s="6">
         <f>SUM(E41:F41)</f>
         <v>0</v>
@@ -20836,7 +21347,9 @@
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
       <c r="G43" s="6">
         <f>SUM(E43:F43)</f>
         <v>0</v>
@@ -20955,7 +21468,9 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
       <c r="G50" s="6">
         <f>SUM(E50:F50)</f>
         <v>0</v>
@@ -20985,7 +21500,9 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
       <c r="G52" s="6">
         <f>SUM(E52:F52)</f>
         <v>0</v>
@@ -20998,7 +21515,9 @@
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
       <c r="G53" s="6">
         <f>SUM(E53:F53)</f>
         <v>0</v>
@@ -21047,7 +21566,9 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
       <c r="G56" s="6">
         <f>SUM(E56:F56)</f>
         <v>0</v>
@@ -21077,7 +21598,9 @@
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="7">
+        <v>0</v>
+      </c>
       <c r="G58" s="6">
         <f>SUM(E58:F58)</f>
         <v>0</v>
@@ -21126,7 +21649,9 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
       <c r="G61" s="6">
         <f>SUM(E61:F61)</f>
         <v>0</v>
@@ -21209,7 +21734,9 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
       <c r="G66" s="6">
         <f>SUM(E66:F66)</f>
         <v>0</v>
@@ -21222,7 +21749,9 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
       <c r="G67" s="6">
         <f>SUM(E67:F67)</f>
         <v>0</v>
@@ -21237,7 +21766,9 @@
       <c r="E68" s="7">
         <v>1</v>
       </c>
-      <c r="F68" s="7"/>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
       <c r="G68" s="6">
         <f>SUM(E68:F68)</f>
         <v>1</v>
@@ -21246,6 +21777,9 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -21410,7 +21944,9 @@
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
       <c r="G79" s="6">
         <f>SUM(E79:F79)</f>
         <v>0</v>
@@ -21593,6 +22129,9 @@
       <c r="A90" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B91" s="11" t="s">
@@ -21671,7 +22210,9 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
       <c r="G95" s="6">
         <f>SUM(E95:F95)</f>
         <v>0</v>
@@ -21754,7 +22295,9 @@
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
       <c r="G100" s="6">
         <f>SUM(E100:F100)</f>
         <v>0</v>
@@ -21847,6 +22390,9 @@
       <c r="A106" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
@@ -21891,7 +22437,9 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
       <c r="G109" s="6">
         <f>SUM(E109:F109)</f>
         <v>0</v>
@@ -21974,7 +22522,9 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
       <c r="G114" s="6">
         <f>SUM(E114:F114)</f>
         <v>0</v>
@@ -22057,7 +22607,9 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="F119" s="2">
+        <v>0</v>
+      </c>
       <c r="G119" s="6">
         <f>SUM(E119:F119)</f>
         <v>0</v>
@@ -22123,7 +22675,9 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2">
+        <v>0</v>
+      </c>
       <c r="G123" s="6">
         <f>SUM(E123:F123)</f>
         <v>0</v>
@@ -22222,7 +22776,9 @@
         <v>2</v>
       </c>
       <c r="D129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
       <c r="G129" s="6">
         <f>SUM(E129:F129)</f>
         <v>0</v>
@@ -22237,7 +22793,9 @@
       <c r="E130" s="2">
         <v>4</v>
       </c>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
       <c r="G130" s="6">
         <f>SUM(E130:F130)</f>
         <v>4</v>
@@ -22252,7 +22810,9 @@
       <c r="E131" s="7">
         <v>2</v>
       </c>
-      <c r="F131" s="7"/>
+      <c r="F131" s="7">
+        <v>0</v>
+      </c>
       <c r="G131" s="6">
         <f>SUM(E131:F131)</f>
         <v>2</v>
@@ -22301,7 +22861,9 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
       <c r="G134" s="6">
         <f>SUM(E134:F134)</f>
         <v>0</v>
@@ -22314,7 +22876,9 @@
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
+      <c r="F135" s="2">
+        <v>0</v>
+      </c>
       <c r="G135" s="6">
         <f>SUM(E135:F135)</f>
         <v>0</v>
@@ -22380,7 +22944,9 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
       <c r="G139" s="6">
         <f>SUM(E139:F139)</f>
         <v>0</v>
@@ -22592,7 +23158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F456FE9E-4F96-4F45-9A98-36EE86B8A7B4}">
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="98" workbookViewId="0">
       <selection activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
@@ -25182,8 +25748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E92C03-AA93-CD4E-A9F4-7988A8D34A1B}">
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A120" zoomScale="88" workbookViewId="0">
+      <selection activeCell="G100" sqref="F100:G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -25385,8 +25951,14 @@
         <v>0</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="6">
+        <f t="shared" ref="E12:F12" si="0">SUM(C12:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G12" s="6">
         <f>SUM(E12:F12)</f>
         <v>0</v>
@@ -25434,8 +26006,14 @@
         <v>2</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="6">
+        <f t="shared" ref="E15:F15" si="1">SUM(C15:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G15" s="6">
         <f>SUM(E15:F15)</f>
         <v>0</v>
@@ -25464,8 +26042,14 @@
         <v>0</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="6">
+        <f t="shared" ref="E17:F17" si="2">SUM(C17:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="G17" s="6">
         <f>SUM(E17:F17)</f>
         <v>0</v>
@@ -25548,7 +26132,10 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="6">
+        <f>SUM(D22:E22)</f>
+        <v>0</v>
+      </c>
       <c r="G22" s="6">
         <f>SUM(E22:F22)</f>
         <v>0</v>
@@ -25631,7 +26218,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="6">
+        <f>SUM(D27:E27)</f>
+        <v>0</v>
+      </c>
       <c r="G27" s="6">
         <f>SUM(E27:F27)</f>
         <v>0</v>
@@ -25683,7 +26273,9 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
       <c r="G30" s="6">
         <f>SUM(E30:F30)</f>
         <v>0</v>
@@ -25713,7 +26305,9 @@
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
       <c r="G32" s="12">
         <f>SUM(E32:F32)</f>
         <v>0</v>
@@ -25799,7 +26393,9 @@
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
       <c r="G38" s="6">
         <f>SUM(E38:F38)</f>
         <v>0</v>
@@ -25848,7 +26444,9 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
       <c r="G41" s="6">
         <f>SUM(E41:F41)</f>
         <v>0</v>
@@ -25878,7 +26476,9 @@
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
       <c r="G43" s="6">
         <f>SUM(E43:F43)</f>
         <v>0</v>
@@ -25996,8 +26596,12 @@
         <v>3</v>
       </c>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
       <c r="G50" s="6">
         <f>SUM(E50:F50)</f>
         <v>0</v>
@@ -26009,8 +26613,12 @@
         <v>2</v>
       </c>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
       <c r="G51" s="6">
         <f>SUM(E51:F51)</f>
         <v>0</v>
@@ -26022,8 +26630,12 @@
         <v>1</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
       <c r="G52" s="6">
         <f>SUM(E52:F52)</f>
         <v>0</v>
@@ -26036,7 +26648,9 @@
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
       <c r="G53" s="6">
         <f>SUM(E53:F53)</f>
         <v>0</v>
@@ -26084,8 +26698,12 @@
         <v>2</v>
       </c>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
       <c r="G56" s="6">
         <f>SUM(E56:F56)</f>
         <v>0</v>
@@ -26115,7 +26733,9 @@
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="7">
+        <v>0</v>
+      </c>
       <c r="G58" s="6">
         <f>SUM(E58:F58)</f>
         <v>0</v>
@@ -26164,7 +26784,9 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
       <c r="G61" s="6">
         <f>SUM(E61:F61)</f>
         <v>0</v>
@@ -26192,7 +26814,9 @@
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
       <c r="G63" s="6">
         <f>SUM(E63:F63)</f>
         <v>0</v>
@@ -26241,7 +26865,9 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
       <c r="G66" s="6">
         <f>SUM(E66:F66)</f>
         <v>0</v>
@@ -26254,7 +26880,9 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
       <c r="G67" s="6">
         <f>SUM(E67:F67)</f>
         <v>0</v>
@@ -26267,7 +26895,9 @@
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
       <c r="G68" s="6">
         <f>SUM(E68:F68)</f>
         <v>0</v>
@@ -26321,7 +26951,9 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
       <c r="G72" s="6">
         <f>SUM(E72:F72)</f>
         <v>0</v>
@@ -26349,7 +26981,9 @@
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="F74" s="2">
+        <v>0</v>
+      </c>
       <c r="G74" s="6">
         <f>SUM(E74:F74)</f>
         <v>0</v>
@@ -26482,7 +27116,9 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
       <c r="G82" s="6">
         <f>SUM(E82:F82)</f>
         <v>0</v>
@@ -26511,8 +27147,14 @@
         <v>0</v>
       </c>
       <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
+      <c r="E84" s="6">
+        <f t="shared" ref="E84:F84" si="3">SUM(C84:D84)</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G84" s="6">
         <f>SUM(E84:F84)</f>
         <v>0</v>
@@ -26560,7 +27202,9 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
       <c r="G87" s="6">
         <f>SUM(E87:F87)</f>
         <v>0</v>
@@ -26628,8 +27272,12 @@
         <v>3</v>
       </c>
       <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
       <c r="G92" s="6">
         <f>SUM(E92:F92)</f>
         <v>0</v>
@@ -26641,8 +27289,12 @@
         <v>2</v>
       </c>
       <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
       <c r="G93" s="6">
         <f>SUM(E93:F93)</f>
         <v>0</v>
@@ -26654,8 +27306,12 @@
         <v>1</v>
       </c>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
       <c r="G94" s="6">
         <f>SUM(E94:F94)</f>
         <v>0</v>
@@ -26667,8 +27323,14 @@
         <v>0</v>
       </c>
       <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="E95" s="6">
+        <f t="shared" ref="E95:F95" si="4">SUM(C95:D95)</f>
+        <v>0</v>
+      </c>
+      <c r="F95" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="G95" s="6">
         <f>SUM(E95:F95)</f>
         <v>0</v>
@@ -26699,8 +27361,12 @@
         <v>3</v>
       </c>
       <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
       <c r="G97" s="6">
         <f>SUM(E97:F97)</f>
         <v>0</v>
@@ -26729,7 +27395,9 @@
         <v>1</v>
       </c>
       <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
       <c r="F99" s="2">
         <v>3</v>
       </c>
@@ -26745,7 +27413,10 @@
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="6">
+        <f>SUM(D100:E100)</f>
+        <v>0</v>
+      </c>
       <c r="G100" s="6">
         <f>SUM(E100:F100)</f>
         <v>0</v>
@@ -26826,7 +27497,9 @@
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
+      <c r="F105" s="7">
+        <v>0</v>
+      </c>
       <c r="G105" s="12">
         <f>SUM(E105:F105)</f>
         <v>0</v>
@@ -26880,7 +27553,9 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
       <c r="G109" s="6">
         <f>SUM(E109:F109)</f>
         <v>0</v>
@@ -26911,6 +27586,9 @@
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
       <c r="G111" s="6">
         <f>SUM(E111:F111)</f>
         <v>0</v>
@@ -26959,7 +27637,9 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
       <c r="G114" s="6">
         <f>SUM(E114:F114)</f>
         <v>0</v>
@@ -26991,7 +27671,9 @@
       <c r="E116" s="7">
         <v>2</v>
       </c>
-      <c r="F116" s="7"/>
+      <c r="F116" s="7">
+        <v>0</v>
+      </c>
       <c r="G116" s="6">
         <f>SUM(E116:F116)</f>
         <v>2</v>
@@ -27040,7 +27722,9 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="F119" s="2">
+        <v>0</v>
+      </c>
       <c r="G119" s="6">
         <f>SUM(E119:F119)</f>
         <v>0</v>
@@ -27070,7 +27754,9 @@
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
+      <c r="F121" s="7">
+        <v>0</v>
+      </c>
       <c r="G121" s="6">
         <f>SUM(E121:F121)</f>
         <v>0</v>
@@ -27102,7 +27788,9 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2">
+        <v>0</v>
+      </c>
       <c r="G123" s="6">
         <f>SUM(E123:F123)</f>
         <v>0</v>
@@ -27115,7 +27803,9 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
+      <c r="F124" s="2">
+        <v>0</v>
+      </c>
       <c r="G124" s="6">
         <f>SUM(E124:F124)</f>
         <v>0</v>
@@ -27130,7 +27820,9 @@
       <c r="E125" s="2">
         <v>2</v>
       </c>
-      <c r="F125" s="2"/>
+      <c r="F125" s="2">
+        <v>0</v>
+      </c>
       <c r="G125" s="6">
         <f>SUM(E125:F125)</f>
         <v>2</v>
@@ -27143,7 +27835,9 @@
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
+      <c r="F126" s="7">
+        <v>0</v>
+      </c>
       <c r="G126" s="6">
         <f>SUM(E126:F126)</f>
         <v>0</v>
@@ -27177,7 +27871,9 @@
       <c r="E128" s="2">
         <v>32</v>
       </c>
-      <c r="F128" s="2"/>
+      <c r="F128" s="2">
+        <v>0</v>
+      </c>
       <c r="G128" s="6">
         <f>SUM(E128:F128)</f>
         <v>32</v>
@@ -27190,7 +27886,9 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
       <c r="G129" s="6">
         <f>SUM(E129:F129)</f>
         <v>0</v>
@@ -27205,7 +27903,9 @@
       <c r="E130" s="2">
         <v>1</v>
       </c>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
       <c r="G130" s="6">
         <f>SUM(E130:F130)</f>
         <v>1</v>
@@ -27218,7 +27918,9 @@
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
+      <c r="F131" s="7">
+        <v>0</v>
+      </c>
       <c r="G131" s="6">
         <f>SUM(E131:F131)</f>
         <v>0</v>
@@ -27300,8 +28002,14 @@
         <v>0</v>
       </c>
       <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
+      <c r="E136" s="6">
+        <f t="shared" ref="E136:F136" si="5">SUM(C136:D136)</f>
+        <v>0</v>
+      </c>
+      <c r="F136" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G136" s="6">
         <f>SUM(E136:F136)</f>
         <v>0</v>
@@ -27350,7 +28058,9 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
       <c r="G139" s="6">
         <f>SUM(E139:F139)</f>
         <v>0</v>
@@ -27379,8 +28089,14 @@
         <v>0</v>
       </c>
       <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
+      <c r="E141" s="6">
+        <f t="shared" ref="E141:F141" si="6">SUM(C141:D141)</f>
+        <v>0</v>
+      </c>
+      <c r="F141" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="G141" s="6">
         <f>SUM(E141:F141)</f>
         <v>0</v>
@@ -27558,8 +28274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C551BE0-3DCF-4244-A4FD-31D0E72AA0D8}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" zoomScale="57" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView topLeftCell="A16" zoomScale="84" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -27681,7 +28397,9 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
       <c r="G7" s="6">
         <f>SUM(E7:F7)</f>
         <v>0</v>
@@ -27762,7 +28480,9 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
       <c r="G12" s="6">
         <f>SUM(E12:F12)</f>
         <v>0</v>
@@ -27811,7 +28531,9 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="6">
         <f>SUM(E15:F15)</f>
         <v>0</v>
@@ -27841,7 +28563,9 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
       <c r="G17" s="6">
         <f>SUM(E17:F17)</f>
         <v>0</v>
@@ -27890,7 +28614,9 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
       <c r="G20" s="6">
         <f>SUM(E20:F20)</f>
         <v>0</v>
@@ -27920,7 +28646,9 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
       <c r="G22" s="6">
         <f>SUM(E22:F22)</f>
         <v>0</v>
@@ -28005,7 +28733,9 @@
       <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
       <c r="G27" s="6">
         <f>SUM(E27:F27)</f>
         <v>1</v>
@@ -28054,7 +28784,9 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
       <c r="G30" s="6">
         <f>SUM(E30:F30)</f>
         <v>0</v>
@@ -28084,7 +28816,9 @@
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
       <c r="G32" s="12">
         <f>SUM(E32:F32)</f>
         <v>0</v>
@@ -28154,7 +28888,9 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
       <c r="G37" s="6">
         <f>SUM(E37:F37)</f>
         <v>0</v>
@@ -28218,7 +28954,9 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
       <c r="G41" s="6">
         <f>SUM(E41:F41)</f>
         <v>0</v>
@@ -28248,7 +28986,9 @@
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
       <c r="G43" s="6">
         <f>SUM(E43:F43)</f>
         <v>0</v>
@@ -28297,7 +29037,9 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
       <c r="G46" s="6">
         <f>SUM(E46:F46)</f>
         <v>0</v>
@@ -28363,7 +29105,9 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
       <c r="G50" s="6">
         <f>SUM(E50:F50)</f>
         <v>0</v>
@@ -28376,7 +29120,9 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
       <c r="G51" s="6">
         <f>SUM(E51:F51)</f>
         <v>0</v>
@@ -28391,7 +29137,9 @@
       <c r="E52" s="2">
         <v>1</v>
       </c>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
       <c r="G52" s="6">
         <f>SUM(E52:F52)</f>
         <v>1</v>
@@ -28404,7 +29152,9 @@
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
       <c r="G53" s="6">
         <f>SUM(E53:F53)</f>
         <v>0</v>
@@ -28436,7 +29186,9 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
       <c r="G55" s="6">
         <f>SUM(E55:F55)</f>
         <v>0</v>
@@ -28449,7 +29201,9 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
       <c r="G56" s="6">
         <f>SUM(E56:F56)</f>
         <v>0</v>
@@ -28462,7 +29216,9 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
       <c r="G57" s="6">
         <f>SUM(E57:F57)</f>
         <v>0</v>
@@ -28475,7 +29231,9 @@
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="7">
+        <v>0</v>
+      </c>
       <c r="G58" s="6">
         <f>SUM(E58:F58)</f>
         <v>0</v>
@@ -28524,7 +29282,9 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
       <c r="G61" s="6">
         <f>SUM(E61:F61)</f>
         <v>0</v>
@@ -28554,7 +29314,9 @@
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
       <c r="G63" s="6">
         <f>SUM(E63:F63)</f>
         <v>0</v>
@@ -28603,7 +29365,9 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
       <c r="G66" s="6">
         <f>SUM(E66:F66)</f>
         <v>0</v>
@@ -28616,7 +29380,9 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
       <c r="G67" s="6">
         <f>SUM(E67:F67)</f>
         <v>0</v>
@@ -28629,7 +29395,9 @@
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
       <c r="G68" s="6">
         <f>SUM(E68:F68)</f>
         <v>0</v>
@@ -28638,6 +29406,9 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -28683,7 +29454,9 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
       <c r="G72" s="6">
         <f>SUM(E72:F72)</f>
         <v>0</v>
@@ -28713,7 +29486,9 @@
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
       <c r="G74" s="6">
         <f>SUM(E74:F74)</f>
         <v>0</v>
@@ -28781,7 +29556,9 @@
       <c r="E78" s="2">
         <v>1</v>
       </c>
-      <c r="F78" s="2"/>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
       <c r="G78" s="6">
         <f>SUM(E78:F78)</f>
         <v>1</v>
@@ -28794,7 +29571,9 @@
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
       <c r="G79" s="6">
         <f>SUM(E79:F79)</f>
         <v>0</v>
@@ -28877,7 +29656,9 @@
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
+      <c r="F84" s="7">
+        <v>0</v>
+      </c>
       <c r="G84" s="6">
         <f>SUM(E84:F84)</f>
         <v>0</v>
@@ -28925,7 +29706,9 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
       <c r="G87" s="6">
         <f>SUM(E87:F87)</f>
         <v>0</v>
@@ -28955,7 +29738,9 @@
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
+      <c r="F89" s="7">
+        <v>0</v>
+      </c>
       <c r="G89" s="6">
         <f>SUM(E89:F89)</f>
         <v>0</v>
@@ -28964,6 +29749,9 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -29009,7 +29797,9 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
       <c r="G93" s="6">
         <f>SUM(E93:F93)</f>
         <v>0</v>
@@ -29022,7 +29812,9 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
       <c r="G94" s="6">
         <f>SUM(E94:F94)</f>
         <v>0</v>
@@ -29035,7 +29827,9 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
       <c r="G95" s="6">
         <f>SUM(E95:F95)</f>
         <v>0</v>
@@ -29118,7 +29912,9 @@
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
       <c r="G100" s="6">
         <f>SUM(E100:F100)</f>
         <v>0</v>
@@ -29199,7 +29995,9 @@
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
+      <c r="F105" s="7">
+        <v>0</v>
+      </c>
       <c r="G105" s="12">
         <f>SUM(E105:F105)</f>
         <v>0</v>
@@ -29208,6 +30006,9 @@
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -29253,7 +30054,9 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
       <c r="G109" s="6">
         <f>SUM(E109:F109)</f>
         <v>0</v>
@@ -29285,7 +30088,9 @@
       <c r="E111" s="7">
         <v>3</v>
       </c>
-      <c r="F111" s="7"/>
+      <c r="F111" s="7">
+        <v>0</v>
+      </c>
       <c r="G111" s="6">
         <f>SUM(E111:F111)</f>
         <v>3</v>
@@ -29334,7 +30139,9 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
       <c r="G114" s="6">
         <f>SUM(E114:F114)</f>
         <v>0</v>
@@ -29364,7 +30171,9 @@
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
+      <c r="F116" s="7">
+        <v>0</v>
+      </c>
       <c r="G116" s="6">
         <f>SUM(E116:F116)</f>
         <v>0</v>
@@ -29413,7 +30222,9 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="F119" s="2">
+        <v>0</v>
+      </c>
       <c r="G119" s="6">
         <f>SUM(E119:F119)</f>
         <v>0</v>
@@ -29445,7 +30256,9 @@
       <c r="E121" s="7">
         <v>3</v>
       </c>
-      <c r="F121" s="7"/>
+      <c r="F121" s="7">
+        <v>0</v>
+      </c>
       <c r="G121" s="6">
         <f>SUM(E121:F121)</f>
         <v>3</v>
@@ -29477,7 +30290,9 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2">
+        <v>0</v>
+      </c>
       <c r="G123" s="6">
         <f>SUM(E123:F123)</f>
         <v>0</v>
@@ -29490,7 +30305,9 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
+      <c r="F124" s="2">
+        <v>0</v>
+      </c>
       <c r="G124" s="6">
         <f>SUM(E124:F124)</f>
         <v>0</v>
@@ -29520,7 +30337,9 @@
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
+      <c r="F126" s="7">
+        <v>0</v>
+      </c>
       <c r="G126" s="6">
         <f>SUM(E126:F126)</f>
         <v>0</v>
@@ -29569,7 +30388,9 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
       <c r="G129" s="6">
         <f>SUM(E129:F129)</f>
         <v>0</v>
@@ -29584,7 +30405,9 @@
       <c r="E130" s="2">
         <v>3</v>
       </c>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
       <c r="G130" s="6">
         <f>SUM(E130:F130)</f>
         <v>3</v>
@@ -29599,7 +30422,9 @@
       <c r="E131" s="7">
         <v>1</v>
       </c>
-      <c r="F131" s="7"/>
+      <c r="F131" s="7">
+        <v>0</v>
+      </c>
       <c r="G131" s="6">
         <f>SUM(E131:F131)</f>
         <v>1</v>
@@ -29648,7 +30473,9 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
       <c r="G134" s="6">
         <f>SUM(E134:F134)</f>
         <v>0</v>
@@ -29680,7 +30507,9 @@
       <c r="E136" s="7">
         <v>1</v>
       </c>
-      <c r="F136" s="7"/>
+      <c r="F136" s="7">
+        <v>0</v>
+      </c>
       <c r="G136" s="6">
         <f>SUM(E136:F136)</f>
         <v>1</v>
@@ -29729,7 +30558,9 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
       <c r="G139" s="6">
         <f>SUM(E139:F139)</f>
         <v>0</v>
@@ -29761,7 +30592,9 @@
       <c r="E141" s="7">
         <v>1</v>
       </c>
-      <c r="F141" s="7"/>
+      <c r="F141" s="7">
+        <v>0</v>
+      </c>
       <c r="G141" s="6">
         <f>SUM(E141:F141)</f>
         <v>1</v>
@@ -29939,8 +30772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B1AEA7-ECA2-FF49-9789-E4F804CB1E75}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="83" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView topLeftCell="A7" zoomScale="83" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -30145,7 +30978,9 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
       <c r="G12" s="6">
         <f>SUM(E12:F12)</f>
         <v>0</v>
@@ -30194,7 +31029,9 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="6">
         <f>SUM(E15:F15)</f>
         <v>0</v>
@@ -30224,7 +31061,9 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
       <c r="G17" s="6">
         <f>SUM(E17:F17)</f>
         <v>0</v>
@@ -30273,7 +31112,9 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
       <c r="G20" s="6">
         <f>SUM(E20:F20)</f>
         <v>0</v>
@@ -30305,7 +31146,9 @@
       <c r="E22" s="7">
         <v>1</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
       <c r="G22" s="6">
         <f>SUM(E22:F22)</f>
         <v>1</v>
@@ -30441,7 +31284,9 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
       <c r="G30" s="6">
         <f>SUM(E30:F30)</f>
         <v>0</v>
@@ -30471,7 +31316,9 @@
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
       <c r="G32" s="12">
         <f>SUM(E32:F32)</f>
         <v>0</v>
@@ -30480,6 +31327,9 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -30610,7 +31460,9 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
       <c r="G41" s="6">
         <f>SUM(E41:F41)</f>
         <v>0</v>
@@ -30642,7 +31494,9 @@
       <c r="E43" s="7">
         <v>1</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
       <c r="G43" s="6">
         <f>SUM(E43:F43)</f>
         <v>1</v>
@@ -30759,7 +31613,9 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
       <c r="G50" s="6">
         <f>SUM(E50:F50)</f>
         <v>0</v>
@@ -30772,7 +31628,9 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
       <c r="G51" s="6">
         <f>SUM(E51:F51)</f>
         <v>0</v>
@@ -30785,7 +31643,9 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
       <c r="G52" s="6">
         <f>SUM(E52:F52)</f>
         <v>0</v>
@@ -30798,7 +31658,9 @@
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
       <c r="G53" s="6">
         <f>SUM(E53:F53)</f>
         <v>0</v>
@@ -30845,7 +31707,9 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
       <c r="G56" s="6">
         <f>SUM(E56:F56)</f>
         <v>0</v>
@@ -30926,7 +31790,9 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
       <c r="G61" s="6">
         <f>SUM(E61:F61)</f>
         <v>0</v>
@@ -30958,7 +31824,9 @@
       <c r="E63" s="7">
         <v>1</v>
       </c>
-      <c r="F63" s="7"/>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
       <c r="G63" s="6">
         <f>SUM(E63:F63)</f>
         <v>1</v>
@@ -31007,7 +31875,9 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
       <c r="G66" s="6">
         <f>SUM(E66:F66)</f>
         <v>0</v>
@@ -31020,7 +31890,9 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
       <c r="G67" s="6">
         <f>SUM(E67:F67)</f>
         <v>0</v>
@@ -31033,7 +31905,9 @@
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
       <c r="G68" s="6">
         <f>SUM(E68:F68)</f>
         <v>0</v>
@@ -31042,6 +31916,9 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -31087,7 +31964,9 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
       <c r="G72" s="6">
         <f>SUM(E72:F72)</f>
         <v>0</v>
@@ -31117,7 +31996,9 @@
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
       <c r="G74" s="6">
         <f>SUM(E74:F74)</f>
         <v>0</v>
@@ -31181,7 +32062,9 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
       <c r="G78" s="6">
         <f>SUM(E78:F78)</f>
         <v>0</v>
@@ -31194,7 +32077,9 @@
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
       <c r="G79" s="6">
         <f>SUM(E79:F79)</f>
         <v>0</v>
@@ -31371,6 +32256,9 @@
       <c r="A90" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B91" s="11" t="s">
@@ -31449,7 +32337,9 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
       <c r="G95" s="6">
         <f>SUM(E95:F95)</f>
         <v>0</v>
@@ -31532,7 +32422,9 @@
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
       <c r="G100" s="6">
         <f>SUM(E100:F100)</f>
         <v>0</v>
@@ -31625,6 +32517,9 @@
       <c r="A106" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
@@ -31701,7 +32596,9 @@
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
+      <c r="F111" s="7">
+        <v>0</v>
+      </c>
       <c r="G111" s="6">
         <f>SUM(E111:F111)</f>
         <v>0</v>
@@ -31835,7 +32732,9 @@
       <c r="E119" s="2">
         <v>1</v>
       </c>
-      <c r="F119" s="2"/>
+      <c r="F119" s="2">
+        <v>0</v>
+      </c>
       <c r="G119" s="6">
         <f>SUM(E119:F119)</f>
         <v>1</v>
@@ -31899,7 +32798,9 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2">
+        <v>0</v>
+      </c>
       <c r="G123" s="6">
         <f>SUM(E123:F123)</f>
         <v>0</v>
@@ -31912,7 +32813,9 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
+      <c r="F124" s="2">
+        <v>0</v>
+      </c>
       <c r="G124" s="6">
         <f>SUM(E124:F124)</f>
         <v>0</v>
@@ -31942,7 +32845,9 @@
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
+      <c r="F126" s="7">
+        <v>0</v>
+      </c>
       <c r="G126" s="6">
         <f>SUM(E126:F126)</f>
         <v>0</v>
@@ -31991,7 +32896,9 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
       <c r="G129" s="6">
         <f>SUM(E129:F129)</f>
         <v>0</v>
@@ -32006,7 +32913,9 @@
       <c r="E130" s="2">
         <v>2</v>
       </c>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
       <c r="G130" s="6">
         <f>SUM(E130:F130)</f>
         <v>2</v>
@@ -32019,7 +32928,9 @@
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
+      <c r="F131" s="7">
+        <v>0</v>
+      </c>
       <c r="G131" s="6">
         <f>SUM(E131:F131)</f>
         <v>0</v>
@@ -32068,7 +32979,9 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
       <c r="G134" s="6">
         <f>SUM(E134:F134)</f>
         <v>0</v>
@@ -32083,7 +32996,9 @@
       <c r="E135" s="2">
         <v>6</v>
       </c>
-      <c r="F135" s="2"/>
+      <c r="F135" s="2">
+        <v>0</v>
+      </c>
       <c r="G135" s="6">
         <f>SUM(E135:F135)</f>
         <v>6</v>
@@ -32098,7 +33013,9 @@
       <c r="E136" s="7">
         <v>3</v>
       </c>
-      <c r="F136" s="7"/>
+      <c r="F136" s="7">
+        <v>0</v>
+      </c>
       <c r="G136" s="6">
         <f>SUM(E136:F136)</f>
         <v>3</v>
@@ -32147,7 +33064,9 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
       <c r="G139" s="6">
         <f>SUM(E139:F139)</f>
         <v>0</v>
@@ -32177,7 +33096,9 @@
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
+      <c r="F141" s="7">
+        <v>0</v>
+      </c>
       <c r="G141" s="6">
         <f>SUM(E141:F141)</f>
         <v>0</v>
@@ -32355,8 +33276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD88201-B616-EF4E-93B4-84DED6E96609}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" zoomScale="96" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="96" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -32478,7 +33399,9 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
       <c r="G7" s="6">
         <f>SUM(E7:F7)</f>
         <v>0</v>
@@ -32559,7 +33482,9 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
       <c r="G12" s="6">
         <f>SUM(E12:F12)</f>
         <v>0</v>
@@ -32640,7 +33565,9 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
       <c r="G17" s="6">
         <f>SUM(E17:F17)</f>
         <v>0</v>
@@ -32721,7 +33648,9 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
       <c r="G22" s="6">
         <f>SUM(E22:F22)</f>
         <v>0</v>
@@ -32804,7 +33733,9 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
       <c r="G27" s="6">
         <f>SUM(E27:F27)</f>
         <v>0</v>
@@ -32889,7 +33820,9 @@
       <c r="E32" s="7">
         <v>1</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
       <c r="G32" s="12">
         <f>SUM(E32:F32)</f>
         <v>1</v>
@@ -32898,6 +33831,9 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -32977,7 +33913,9 @@
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
       <c r="G38" s="6">
         <f>SUM(E38:F38)</f>
         <v>0</v>
@@ -33026,7 +33964,9 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
       <c r="G41" s="6">
         <f>SUM(E41:F41)</f>
         <v>0</v>
@@ -33058,7 +33998,9 @@
       <c r="E43" s="7">
         <v>1</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
       <c r="G43" s="6">
         <f>SUM(E43:F43)</f>
         <v>1</v>
@@ -33175,7 +34117,9 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
       <c r="G50" s="6">
         <f>SUM(E50:F50)</f>
         <v>0</v>
@@ -33188,7 +34132,9 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
       <c r="G51" s="6">
         <f>SUM(E51:F51)</f>
         <v>0</v>
@@ -33201,7 +34147,9 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
       <c r="G52" s="6">
         <f>SUM(E52:F52)</f>
         <v>0</v>
@@ -33214,7 +34162,9 @@
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
       <c r="G53" s="6">
         <f>SUM(E53:F53)</f>
         <v>0</v>
@@ -33346,7 +34296,9 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
       <c r="G61" s="6">
         <f>SUM(E61:F61)</f>
         <v>0</v>
@@ -33376,7 +34328,9 @@
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
       <c r="G63" s="6">
         <f>SUM(E63:F63)</f>
         <v>0</v>
@@ -33425,7 +34379,9 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
       <c r="G66" s="6">
         <f>SUM(E66:F66)</f>
         <v>0</v>
@@ -33440,7 +34396,9 @@
       <c r="E67" s="2">
         <v>1</v>
       </c>
-      <c r="F67" s="2"/>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
       <c r="G67" s="6">
         <f>SUM(E67:F67)</f>
         <v>1</v>
@@ -33453,7 +34411,9 @@
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
       <c r="G68" s="6">
         <f>SUM(E68:F68)</f>
         <v>0</v>
@@ -33462,6 +34422,9 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -33507,7 +34470,9 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
       <c r="G72" s="6">
         <f>SUM(E72:F72)</f>
         <v>0</v>
@@ -33535,7 +34500,9 @@
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
       <c r="G74" s="6">
         <f>SUM(E74:F74)</f>
         <v>0</v>
@@ -33599,7 +34566,9 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
       <c r="G78" s="6">
         <f>SUM(E78:F78)</f>
         <v>0</v>
@@ -33612,7 +34581,9 @@
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
       <c r="G79" s="6">
         <f>SUM(E79:F79)</f>
         <v>0</v>
@@ -33697,7 +34668,9 @@
       <c r="E84" s="7">
         <v>1</v>
       </c>
-      <c r="F84" s="7"/>
+      <c r="F84" s="7">
+        <v>0</v>
+      </c>
       <c r="G84" s="6">
         <f>SUM(E84:F84)</f>
         <v>1</v>
@@ -33745,7 +34718,9 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
       <c r="G87" s="6">
         <f>SUM(E87:F87)</f>
         <v>0</v>
@@ -33786,6 +34761,9 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -33848,7 +34826,9 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
       <c r="G94" s="6">
         <f>SUM(E94:F94)</f>
         <v>0</v>
@@ -33861,7 +34841,9 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
       <c r="G95" s="6">
         <f>SUM(E95:F95)</f>
         <v>0</v>
@@ -33944,7 +34926,9 @@
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
       <c r="G100" s="6">
         <f>SUM(E100:F100)</f>
         <v>0</v>
@@ -34039,6 +35023,9 @@
       <c r="A106" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
@@ -34083,7 +35070,9 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
       <c r="G109" s="6">
         <f>SUM(E109:F109)</f>
         <v>0</v>
@@ -34115,7 +35104,9 @@
       <c r="E111" s="7">
         <v>1</v>
       </c>
-      <c r="F111" s="7"/>
+      <c r="F111" s="7">
+        <v>0</v>
+      </c>
       <c r="G111" s="6">
         <f>SUM(E111:F111)</f>
         <v>1</v>
@@ -34164,7 +35155,9 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
       <c r="G114" s="6">
         <f>SUM(E114:F114)</f>
         <v>0</v>
@@ -34364,7 +35357,9 @@
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
+      <c r="F126" s="7">
+        <v>0</v>
+      </c>
       <c r="G126" s="6">
         <f>SUM(E126:F126)</f>
         <v>0</v>
@@ -34415,7 +35410,9 @@
       <c r="E129" s="2">
         <v>1</v>
       </c>
-      <c r="F129" s="2"/>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
       <c r="G129" s="6">
         <f>SUM(E129:F129)</f>
         <v>1</v>
@@ -34428,7 +35425,9 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
       <c r="G130" s="6">
         <f>SUM(E130:F130)</f>
         <v>0</v>
@@ -34494,7 +35493,9 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
       <c r="G134" s="6">
         <f>SUM(E134:F134)</f>
         <v>0</v>
@@ -34577,7 +35578,9 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
       <c r="G139" s="6">
         <f>SUM(E139:F139)</f>
         <v>0</v>
@@ -34609,7 +35612,9 @@
       <c r="E141" s="7">
         <v>1</v>
       </c>
-      <c r="F141" s="7"/>
+      <c r="F141" s="7">
+        <v>0</v>
+      </c>
       <c r="G141" s="6">
         <f>SUM(E141:F141)</f>
         <v>1</v>
@@ -34787,8 +35792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3682D6B-F43F-6443-9314-36F5727EAD8F}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="71" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView zoomScale="71" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -34991,7 +35996,9 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
       <c r="G12" s="6">
         <f>SUM(E12:F12)</f>
         <v>0</v>
@@ -35040,7 +36047,9 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="6">
         <f>SUM(E15:F15)</f>
         <v>0</v>
@@ -35070,7 +36079,9 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
       <c r="G17" s="6">
         <f>SUM(E17:F17)</f>
         <v>0</v>
@@ -35118,6 +36129,9 @@
         <v>2</v>
       </c>
       <c r="D20" s="2"/>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
       <c r="G20" s="6">
         <f>SUM(E20:F20)</f>
         <v>0</v>
@@ -35149,7 +36163,9 @@
       <c r="E22" s="7">
         <v>1</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
       <c r="G22" s="6">
         <f>SUM(E22:F22)</f>
         <v>1</v>
@@ -35234,7 +36250,9 @@
       <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
       <c r="G27" s="6">
         <f>SUM(E27:F27)</f>
         <v>1</v>
@@ -35283,7 +36301,9 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
       <c r="G30" s="6">
         <f>SUM(E30:F30)</f>
         <v>0</v>
@@ -35315,7 +36335,9 @@
       <c r="E32" s="7">
         <v>1</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
       <c r="G32" s="12">
         <f>SUM(E32:F32)</f>
         <v>1</v>
@@ -35324,6 +36346,9 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -35399,7 +36424,9 @@
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
       <c r="G38" s="6">
         <f>SUM(E38:F38)</f>
         <v>0</v>
@@ -35448,7 +36475,9 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
       <c r="G41" s="6">
         <f>SUM(E41:F41)</f>
         <v>0</v>
@@ -35599,7 +36628,9 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
       <c r="G50" s="6">
         <f>SUM(E50:F50)</f>
         <v>0</v>
@@ -35693,7 +36724,9 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
       <c r="G56" s="6">
         <f>SUM(E56:F56)</f>
         <v>0</v>
@@ -35776,7 +36809,9 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
       <c r="G61" s="6">
         <f>SUM(E61:F61)</f>
         <v>0</v>
@@ -35806,7 +36841,9 @@
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
       <c r="G63" s="6">
         <f>SUM(E63:F63)</f>
         <v>0</v>
@@ -35855,7 +36892,9 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
       <c r="G66" s="6">
         <f>SUM(E66:F66)</f>
         <v>0</v>
@@ -35868,7 +36907,9 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
       <c r="G67" s="6">
         <f>SUM(E67:F67)</f>
         <v>0</v>
@@ -35881,7 +36922,9 @@
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
       <c r="G68" s="6">
         <f>SUM(E68:F68)</f>
         <v>0</v>
@@ -35890,6 +36933,9 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -35935,7 +36981,9 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
       <c r="G72" s="6">
         <f>SUM(E72:F72)</f>
         <v>0</v>
@@ -35963,7 +37011,9 @@
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
       <c r="G74" s="6">
         <f>SUM(E74:F74)</f>
         <v>0</v>
@@ -36029,7 +37079,9 @@
       <c r="E78" s="2">
         <v>1</v>
       </c>
-      <c r="F78" s="2"/>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
       <c r="G78" s="6">
         <f>SUM(E78:F78)</f>
         <v>1</v>
@@ -36042,7 +37094,9 @@
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
       <c r="G79" s="6">
         <f>SUM(E79:F79)</f>
         <v>0</v>
@@ -36175,7 +37229,9 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
       <c r="G87" s="6">
         <f>SUM(E87:F87)</f>
         <v>0</v>
@@ -36216,6 +37272,9 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -36261,7 +37320,9 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
       <c r="G93" s="6">
         <f>SUM(E93:F93)</f>
         <v>0</v>
@@ -36291,7 +37352,9 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
       <c r="G95" s="6">
         <f>SUM(E95:F95)</f>
         <v>0</v>
@@ -36374,7 +37437,9 @@
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
       <c r="G100" s="6">
         <f>SUM(E100:F100)</f>
         <v>0</v>
@@ -36471,6 +37536,9 @@
       <c r="A106" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
@@ -36515,7 +37583,9 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
       <c r="G109" s="6">
         <f>SUM(E109:F109)</f>
         <v>0</v>
@@ -36547,7 +37617,9 @@
       <c r="E111" s="7">
         <v>1</v>
       </c>
-      <c r="F111" s="7"/>
+      <c r="F111" s="7">
+        <v>0</v>
+      </c>
       <c r="G111" s="6">
         <f>SUM(E111:F111)</f>
         <v>1</v>
@@ -36596,7 +37668,9 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
       <c r="G114" s="6">
         <f>SUM(E114:F114)</f>
         <v>0</v>
@@ -36628,7 +37702,9 @@
       <c r="E116" s="7">
         <v>2</v>
       </c>
-      <c r="F116" s="7"/>
+      <c r="F116" s="7">
+        <v>0</v>
+      </c>
       <c r="G116" s="6">
         <f>SUM(E116:F116)</f>
         <v>2</v>
@@ -36677,7 +37753,9 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="F119" s="2">
+        <v>0</v>
+      </c>
       <c r="G119" s="6">
         <f>SUM(E119:F119)</f>
         <v>0</v>
@@ -36743,7 +37821,9 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2">
+        <v>0</v>
+      </c>
       <c r="G123" s="6">
         <f>SUM(E123:F123)</f>
         <v>0</v>
@@ -36756,7 +37836,9 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
+      <c r="F124" s="2">
+        <v>0</v>
+      </c>
       <c r="G124" s="6">
         <f>SUM(E124:F124)</f>
         <v>0</v>
@@ -36786,7 +37868,9 @@
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
+      <c r="F126" s="7">
+        <v>0</v>
+      </c>
       <c r="G126" s="6">
         <f>SUM(E126:F126)</f>
         <v>0</v>
@@ -36835,7 +37919,9 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
       <c r="G129" s="6">
         <f>SUM(E129:F129)</f>
         <v>0</v>
@@ -36850,7 +37936,9 @@
       <c r="E130" s="2">
         <v>1</v>
       </c>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
       <c r="G130" s="6">
         <f>SUM(E130:F130)</f>
         <v>1</v>
@@ -36916,7 +38004,9 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
       <c r="G134" s="6">
         <f>SUM(E134:F134)</f>
         <v>0</v>
@@ -36999,7 +38089,9 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
       <c r="G139" s="6">
         <f>SUM(E139:F139)</f>
         <v>0</v>
@@ -37029,7 +38121,9 @@
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
+      <c r="F141" s="7">
+        <v>0</v>
+      </c>
       <c r="G141" s="6">
         <f>SUM(E141:F141)</f>
         <v>0</v>
@@ -37207,8 +38301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90F1C54-D72E-0241-933D-30E97B640360}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="63" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView zoomScale="63" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -37332,7 +38426,9 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
       <c r="G7" s="6">
         <f>SUM(E7:F7)</f>
         <v>1</v>
@@ -37413,7 +38509,9 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
       <c r="G12" s="6">
         <f>SUM(E12:F12)</f>
         <v>0</v>
@@ -37479,7 +38577,9 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
       <c r="G16" s="6">
         <f>SUM(E16:F16)</f>
         <v>0</v>
@@ -37492,7 +38592,9 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
       <c r="G17" s="6">
         <f>SUM(E17:F17)</f>
         <v>0</v>
@@ -37541,7 +38643,9 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
       <c r="G20" s="6">
         <f>SUM(E20:F20)</f>
         <v>0</v>
@@ -37573,7 +38677,9 @@
       <c r="E22" s="7">
         <v>1</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
       <c r="G22" s="6">
         <f>SUM(E22:F22)</f>
         <v>1</v>
@@ -37707,7 +38813,9 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
       <c r="G30" s="6">
         <f>SUM(E30:F30)</f>
         <v>0</v>
@@ -37750,6 +38858,9 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -37895,7 +39006,9 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
       <c r="G42" s="6">
         <f>SUM(E42:F42)</f>
         <v>0</v>
@@ -37908,7 +39021,9 @@
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
       <c r="G43" s="6">
         <f>SUM(E43:F43)</f>
         <v>0</v>
@@ -38027,7 +39142,9 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
       <c r="G50" s="6">
         <f>SUM(E50:F50)</f>
         <v>0</v>
@@ -38121,7 +39238,9 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
       <c r="G56" s="6">
         <f>SUM(E56:F56)</f>
         <v>0</v>
@@ -38200,7 +39319,9 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
       <c r="G61" s="6">
         <f>SUM(E61:F61)</f>
         <v>0</v>
@@ -38230,7 +39351,9 @@
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
       <c r="G63" s="6">
         <f>SUM(E63:F63)</f>
         <v>0</v>
@@ -38294,7 +39417,9 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
       <c r="G67" s="6">
         <f>SUM(E67:F67)</f>
         <v>0</v>
@@ -38307,7 +39432,9 @@
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
       <c r="G68" s="6">
         <f>SUM(E68:F68)</f>
         <v>0</v>
@@ -38316,6 +39443,9 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -38361,7 +39491,9 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
       <c r="G72" s="6">
         <f>SUM(E72:F72)</f>
         <v>0</v>
@@ -38391,7 +39523,9 @@
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
       <c r="G74" s="6">
         <f>SUM(E74:F74)</f>
         <v>0</v>
@@ -38557,7 +39691,9 @@
       <c r="E84" s="7">
         <v>1</v>
       </c>
-      <c r="F84" s="7"/>
+      <c r="F84" s="7">
+        <v>0</v>
+      </c>
       <c r="G84" s="6">
         <f>SUM(E84:F84)</f>
         <v>1</v>
@@ -38642,7 +39778,9 @@
       <c r="E89" s="7">
         <v>2</v>
       </c>
-      <c r="F89" s="7"/>
+      <c r="F89" s="7">
+        <v>0</v>
+      </c>
       <c r="G89" s="6">
         <f>SUM(E89:F89)</f>
         <v>2</v>
@@ -38651,6 +39789,9 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -38696,7 +39837,9 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
       <c r="G93" s="6">
         <f>SUM(E93:F93)</f>
         <v>0</v>
@@ -38726,7 +39869,9 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
       <c r="G95" s="6">
         <f>SUM(E95:F95)</f>
         <v>0</v>
@@ -38809,7 +39954,9 @@
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
       <c r="G100" s="6">
         <f>SUM(E100:F100)</f>
         <v>0</v>
@@ -38904,6 +40051,9 @@
       <c r="A106" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
@@ -38948,7 +40098,9 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
       <c r="G109" s="6">
         <f>SUM(E109:F109)</f>
         <v>0</v>
@@ -39031,7 +40183,9 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
       <c r="G114" s="6">
         <f>SUM(E114:F114)</f>
         <v>0</v>
@@ -39182,7 +40336,9 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2">
+        <v>0</v>
+      </c>
       <c r="G123" s="6">
         <f>SUM(E123:F123)</f>
         <v>0</v>
@@ -39195,7 +40351,9 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
+      <c r="F124" s="2">
+        <v>0</v>
+      </c>
       <c r="G124" s="6">
         <f>SUM(E124:F124)</f>
         <v>0</v>
@@ -39225,7 +40383,9 @@
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
+      <c r="F126" s="7">
+        <v>0</v>
+      </c>
       <c r="G126" s="6">
         <f>SUM(E126:F126)</f>
         <v>0</v>
@@ -39274,7 +40434,9 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
       <c r="G129" s="6">
         <f>SUM(E129:F129)</f>
         <v>0</v>
@@ -39289,7 +40451,9 @@
       <c r="E130" s="2">
         <v>2</v>
       </c>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
       <c r="G130" s="6">
         <f>SUM(E130:F130)</f>
         <v>2</v>
@@ -39302,7 +40466,9 @@
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
+      <c r="F131" s="7">
+        <v>0</v>
+      </c>
       <c r="G131" s="6">
         <f>SUM(E131:F131)</f>
         <v>0</v>
@@ -39385,7 +40551,9 @@
       <c r="E136" s="7">
         <v>6</v>
       </c>
-      <c r="F136" s="7"/>
+      <c r="F136" s="7">
+        <v>0</v>
+      </c>
       <c r="G136" s="6">
         <f>SUM(E136:F136)</f>
         <v>6</v>
@@ -39434,7 +40602,9 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
       <c r="G139" s="6">
         <f>SUM(E139:F139)</f>
         <v>0</v>
@@ -39644,8 +40814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C637BB-80DE-F744-82BC-484DA90411DB}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="55" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView zoomScale="55" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12 F15 F17 F20 F22 F30 F32:F33 F36 F41 F51 F53 F56 F61 F63 F66:F69 F72 F79 F84 F90 F95 F100 F106 F109 F111 F114 F123:F124 F129:F131 F134 F139 F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -39852,7 +41022,9 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
       <c r="G12" s="6">
         <f>SUM(E12:F12)</f>
         <v>0</v>
@@ -39901,7 +41073,9 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="6">
         <f>SUM(E15:F15)</f>
         <v>0</v>
@@ -39933,7 +41107,9 @@
       <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
       <c r="G17" s="6">
         <f>SUM(E17:F17)</f>
         <v>1</v>
@@ -39982,7 +41158,9 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
       <c r="G20" s="6">
         <f>SUM(E20:F20)</f>
         <v>0</v>
@@ -40012,7 +41190,9 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
       <c r="G22" s="6">
         <f>SUM(E22:F22)</f>
         <v>0</v>
@@ -40146,7 +41326,9 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
       <c r="G30" s="6">
         <f>SUM(E30:F30)</f>
         <v>0</v>
@@ -40176,7 +41358,9 @@
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
       <c r="G32" s="12">
         <f>SUM(E32:F32)</f>
         <v>0</v>
@@ -40185,6 +41369,9 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -40230,7 +41417,9 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
       <c r="G36" s="6">
         <f>SUM(E36:F36)</f>
         <v>0</v>
@@ -40309,7 +41498,9 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
       <c r="G41" s="6">
         <f>SUM(E41:F41)</f>
         <v>0</v>
@@ -40475,7 +41666,9 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
       <c r="G51" s="6">
         <f>SUM(E51:F51)</f>
         <v>0</v>
@@ -40505,7 +41698,9 @@
       <c r="E53" s="7">
         <v>1</v>
       </c>
-      <c r="F53" s="7"/>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
       <c r="G53" s="6">
         <f>SUM(E53:F53)</f>
         <v>1</v>
@@ -40554,7 +41749,9 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
       <c r="G56" s="6">
         <f>SUM(E56:F56)</f>
         <v>0</v>
@@ -40635,7 +41832,9 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
       <c r="G61" s="6">
         <f>SUM(E61:F61)</f>
         <v>0</v>
@@ -40667,7 +41866,9 @@
       <c r="E63" s="7">
         <v>1</v>
       </c>
-      <c r="F63" s="7"/>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
       <c r="G63" s="6">
         <f>SUM(E63:F63)</f>
         <v>1</v>
@@ -40716,7 +41917,9 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
       <c r="G66" s="6">
         <f>SUM(E66:F66)</f>
         <v>0</v>
@@ -40729,7 +41932,9 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
       <c r="G67" s="6">
         <f>SUM(E67:F67)</f>
         <v>0</v>
@@ -40742,7 +41947,9 @@
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
       <c r="G68" s="6">
         <f>SUM(E68:F68)</f>
         <v>0</v>
@@ -40751,6 +41958,9 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -40796,7 +42006,9 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
       <c r="G72" s="6">
         <f>SUM(E72:F72)</f>
         <v>0</v>
@@ -40909,7 +42121,9 @@
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
       <c r="G79" s="6">
         <f>SUM(E79:F79)</f>
         <v>0</v>
@@ -40992,7 +42206,9 @@
       <c r="E84" s="7">
         <v>1</v>
       </c>
-      <c r="F84" s="7"/>
+      <c r="F84" s="7">
+        <v>0</v>
+      </c>
       <c r="G84" s="6">
         <f>SUM(E84:F84)</f>
         <v>1</v>
@@ -41087,6 +42303,9 @@
       <c r="A90" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B91" s="11" t="s">
@@ -41163,7 +42382,9 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
       <c r="G95" s="6">
         <f>SUM(E95:F95)</f>
         <v>0</v>
@@ -41246,7 +42467,9 @@
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
       <c r="G100" s="6">
         <f>SUM(E100:F100)</f>
         <v>0</v>
@@ -41343,6 +42566,9 @@
       <c r="A106" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B107" s="11" t="s">
@@ -41387,7 +42613,9 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
       <c r="G109" s="6">
         <f>SUM(E109:F109)</f>
         <v>0</v>
@@ -41419,7 +42647,9 @@
       <c r="E111" s="7">
         <v>1</v>
       </c>
-      <c r="F111" s="7"/>
+      <c r="F111" s="7">
+        <v>0</v>
+      </c>
       <c r="G111" s="6">
         <f>SUM(E111:F111)</f>
         <v>1</v>
@@ -41468,7 +42698,9 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
       <c r="G114" s="6">
         <f>SUM(E114:F114)</f>
         <v>0</v>
@@ -41619,7 +42851,9 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="2">
+        <v>0</v>
+      </c>
       <c r="G123" s="6">
         <f>SUM(E123:F123)</f>
         <v>0</v>
@@ -41632,7 +42866,9 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
+      <c r="F124" s="2">
+        <v>0</v>
+      </c>
       <c r="G124" s="6">
         <f>SUM(E124:F124)</f>
         <v>0</v>
@@ -41713,7 +42949,9 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
       <c r="G129" s="6">
         <f>SUM(E129:F129)</f>
         <v>0</v>
@@ -41726,7 +42964,9 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
       <c r="G130" s="6">
         <f>SUM(E130:F130)</f>
         <v>0</v>
@@ -41741,7 +42981,9 @@
       <c r="E131" s="7">
         <v>2</v>
       </c>
-      <c r="F131" s="7"/>
+      <c r="F131" s="7">
+        <v>0</v>
+      </c>
       <c r="G131" s="6">
         <f>SUM(E131:F131)</f>
         <v>2</v>
@@ -41790,7 +43032,9 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
       <c r="G134" s="6">
         <f>SUM(E134:F134)</f>
         <v>0</v>
@@ -41873,7 +43117,9 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
       <c r="G139" s="6">
         <f>SUM(E139:F139)</f>
         <v>0</v>
@@ -41903,7 +43149,9 @@
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
+      <c r="F141" s="7">
+        <v>0</v>
+      </c>
       <c r="G141" s="6">
         <f>SUM(E141:F141)</f>
         <v>0</v>
